--- a/hcmue/static/resources/output_template_2a.xlsx
+++ b/hcmue/static/resources/output_template_2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="589">
   <si>
     <t>Mẫu 2a</t>
   </si>
@@ -76,6 +76,24 @@
     <t>Xếp loại</t>
   </si>
   <si>
+    <t>41.01.905.008</t>
+  </si>
+  <si>
+    <t>LÊ MINH CHIẾN</t>
+  </si>
+  <si>
+    <t>02/04/1996</t>
+  </si>
+  <si>
+    <t>41.01.GDQP.A</t>
+  </si>
+  <si>
+    <t>Không xếp loại</t>
+  </si>
+  <si>
+    <t>Nghỉ học tạm thời</t>
+  </si>
+  <si>
     <t>41.01.905.028</t>
   </si>
   <si>
@@ -85,10 +103,31 @@
     <t>25/03/1997</t>
   </si>
   <si>
-    <t>41.01.GDQP.A</t>
-  </si>
-  <si>
-    <t>Không xếp loại</t>
+    <t/>
+  </si>
+  <si>
+    <t>41.01.905.043</t>
+  </si>
+  <si>
+    <t>QUÁCH CÔNG MINH</t>
+  </si>
+  <si>
+    <t>20/03/1995</t>
+  </si>
+  <si>
+    <t>Buộc thôi học</t>
+  </si>
+  <si>
+    <t>41.01.905.011</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ MỘNG CƠ</t>
+  </si>
+  <si>
+    <t>07/10/1995</t>
+  </si>
+  <si>
+    <t>41.01.GDQP.B</t>
   </si>
   <si>
     <t>41.01.905.067</t>
@@ -100,12 +139,30 @@
     <t>16/05/1989</t>
   </si>
   <si>
-    <t>41.01.GDQP.B</t>
-  </si>
-  <si>
     <t>Trung bình</t>
   </si>
   <si>
+    <t>43.01.905.021</t>
+  </si>
+  <si>
+    <t>NÔNG THỊ BÍCH HƯỜNG</t>
+  </si>
+  <si>
+    <t>31/05/1999</t>
+  </si>
+  <si>
+    <t>43.01.GDQP.B</t>
+  </si>
+  <si>
+    <t>43.01.905.039</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN NAM</t>
+  </si>
+  <si>
+    <t>04/02/1998</t>
+  </si>
+  <si>
     <t>43.01.905.045</t>
   </si>
   <si>
@@ -115,7 +172,70 @@
     <t>15/09/1999</t>
   </si>
   <si>
-    <t>43.01.GDQP.B</t>
+    <t>43.01.905.066</t>
+  </si>
+  <si>
+    <t>TRẦN MINH TIẾN</t>
+  </si>
+  <si>
+    <t>30/08/1998</t>
+  </si>
+  <si>
+    <t>43.01.905.092</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN THÀNH</t>
+  </si>
+  <si>
+    <t>03/05/1999</t>
+  </si>
+  <si>
+    <t>43.01.905.094</t>
+  </si>
+  <si>
+    <t>VĂN TRÍ TRUNG</t>
+  </si>
+  <si>
+    <t>11/10/1995</t>
+  </si>
+  <si>
+    <t>43.01.905.051</t>
+  </si>
+  <si>
+    <t>LÊ PHÚ</t>
+  </si>
+  <si>
+    <t>15/08/1999</t>
+  </si>
+  <si>
+    <t>43.01.GDQP.A</t>
+  </si>
+  <si>
+    <t>43.01.905.055</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN QUÝ</t>
+  </si>
+  <si>
+    <t>23/09/1997</t>
+  </si>
+  <si>
+    <t>43.01.905.073</t>
+  </si>
+  <si>
+    <t>ĐẶNG MINH TÚ</t>
+  </si>
+  <si>
+    <t>13/01/1999</t>
+  </si>
+  <si>
+    <t>43.01.905.075</t>
+  </si>
+  <si>
+    <t>NGUYỄN PHẠM MẠNH TUÂN</t>
+  </si>
+  <si>
+    <t>01/09/1999</t>
   </si>
   <si>
     <t>43.01.905.086</t>
@@ -127,7 +247,235 @@
     <t>20/02/1998</t>
   </si>
   <si>
-    <t>43.01.GDQP.A</t>
+    <t>46.01.905.002</t>
+  </si>
+  <si>
+    <t>Trần Văn Ẩn</t>
+  </si>
+  <si>
+    <t>23/09/2002</t>
+  </si>
+  <si>
+    <t>46.01.GDQP.A</t>
+  </si>
+  <si>
+    <t>46.01.905.004</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Anh</t>
+  </si>
+  <si>
+    <t>05/08/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.009</t>
+  </si>
+  <si>
+    <t>Vũ Văn Đàm</t>
+  </si>
+  <si>
+    <t>29/11/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.010</t>
+  </si>
+  <si>
+    <t>Trần Thanh Đảm</t>
+  </si>
+  <si>
+    <t>04/12/2002</t>
+  </si>
+  <si>
+    <t>Khá</t>
+  </si>
+  <si>
+    <t>46.01.905.011</t>
+  </si>
+  <si>
+    <t>ĐẶNG TRIỀU ĐÌNH</t>
+  </si>
+  <si>
+    <t>11/08/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.012</t>
+  </si>
+  <si>
+    <t>Trần Hiếu Đỉnh</t>
+  </si>
+  <si>
+    <t>13/05/2001</t>
+  </si>
+  <si>
+    <t>46.01.905.013</t>
+  </si>
+  <si>
+    <t>Lê Quách Thành Đô</t>
+  </si>
+  <si>
+    <t>01/10/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.014</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Đức</t>
+  </si>
+  <si>
+    <t>18/07/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.015</t>
+  </si>
+  <si>
+    <t>Nguyễn Huy Đức</t>
+  </si>
+  <si>
+    <t>05/07/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.016</t>
+  </si>
+  <si>
+    <t>Lê Minh Đức</t>
+  </si>
+  <si>
+    <t>17/06/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.017</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc Dung</t>
+  </si>
+  <si>
+    <t>03/09/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.018</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Dương</t>
+  </si>
+  <si>
+    <t>07/01/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.019</t>
+  </si>
+  <si>
+    <t>Trần Nguyễn Gia Dương</t>
+  </si>
+  <si>
+    <t>15/10/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.020</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Duy</t>
+  </si>
+  <si>
+    <t>17/03/2001</t>
+  </si>
+  <si>
+    <t>46.01.905.021</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Trúc Giang</t>
+  </si>
+  <si>
+    <t>20/02/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.022</t>
+  </si>
+  <si>
+    <t>Sơn Thị Khánh Hà</t>
+  </si>
+  <si>
+    <t>19/04/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.024</t>
+  </si>
+  <si>
+    <t>Từ Chí Hiển</t>
+  </si>
+  <si>
+    <t>21/11/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.026</t>
+  </si>
+  <si>
+    <t>Điểu Minh Hiếu</t>
+  </si>
+  <si>
+    <t>30/06/2001</t>
+  </si>
+  <si>
+    <t>46.01.905.027</t>
+  </si>
+  <si>
+    <t>TỐNG THỊ HIỂU</t>
+  </si>
+  <si>
+    <t>26/11/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.028</t>
+  </si>
+  <si>
+    <t>Thái Nguyễn Thi Hoàng</t>
+  </si>
+  <si>
+    <t>04/01/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.029</t>
+  </si>
+  <si>
+    <t>Phan Thị Ánh Hồng</t>
+  </si>
+  <si>
+    <t>13/08/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.030</t>
+  </si>
+  <si>
+    <t>Trần Nguyễn Ngọc Hưng</t>
+  </si>
+  <si>
+    <t>24/10/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.032</t>
+  </si>
+  <si>
+    <t>Trương Hồng Nhựt Huy</t>
+  </si>
+  <si>
+    <t>12/01/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.033</t>
+  </si>
+  <si>
+    <t>Đặng Thái Huy</t>
+  </si>
+  <si>
+    <t>07/07/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.034</t>
+  </si>
+  <si>
+    <t>TRẦN QUỐC KHÁNH</t>
+  </si>
+  <si>
+    <t>31/03/2002</t>
   </si>
   <si>
     <t>46.01.905.035</t>
@@ -139,7 +487,79 @@
     <t>27/08/2002</t>
   </si>
   <si>
-    <t>46.01.GDQP.A</t>
+    <t>46.01.905.037</t>
+  </si>
+  <si>
+    <t>H' DAI KPĂ</t>
+  </si>
+  <si>
+    <t>20/04/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.038</t>
+  </si>
+  <si>
+    <t>NGUYỄN PHƯƠNG LÂM</t>
+  </si>
+  <si>
+    <t>16/07/2001</t>
+  </si>
+  <si>
+    <t>Thôi học</t>
+  </si>
+  <si>
+    <t>46.01.905.039</t>
+  </si>
+  <si>
+    <t>Lê Thị Thùy Liên</t>
+  </si>
+  <si>
+    <t>24/08/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.040</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Yến Linh</t>
+  </si>
+  <si>
+    <t>28/01/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.042</t>
+  </si>
+  <si>
+    <t>QUANG MỸ LINH</t>
+  </si>
+  <si>
+    <t>22/09/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.043</t>
+  </si>
+  <si>
+    <t>NGUYỄN TẤN LỢI</t>
+  </si>
+  <si>
+    <t>19/04/1994</t>
+  </si>
+  <si>
+    <t>46.01.905.044</t>
+  </si>
+  <si>
+    <t>Nguyễn Tấn Luật</t>
+  </si>
+  <si>
+    <t>23/10/2002</t>
+  </si>
+  <si>
+    <t>46.01.905.045</t>
+  </si>
+  <si>
+    <t>Hoàng Thị Ngọc Mai</t>
+  </si>
+  <si>
+    <t>04/08/2002</t>
   </si>
   <si>
     <t>46.01.905.046</t>
@@ -151,60 +571,6 @@
     <t>07/11/2001</t>
   </si>
   <si>
-    <t>46.01.905.037</t>
-  </si>
-  <si>
-    <t>H' DAI KPĂ</t>
-  </si>
-  <si>
-    <t>20/04/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.039</t>
-  </si>
-  <si>
-    <t>Lê Thị Thùy Liên</t>
-  </si>
-  <si>
-    <t>24/08/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.040</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Yến Linh</t>
-  </si>
-  <si>
-    <t>28/01/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.042</t>
-  </si>
-  <si>
-    <t>QUANG MỸ LINH</t>
-  </si>
-  <si>
-    <t>22/09/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.044</t>
-  </si>
-  <si>
-    <t>Nguyễn Tấn Luật</t>
-  </si>
-  <si>
-    <t>23/10/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.045</t>
-  </si>
-  <si>
-    <t>Hoàng Thị Ngọc Mai</t>
-  </si>
-  <si>
-    <t>04/08/2002</t>
-  </si>
-  <si>
     <t>46.01.905.048</t>
   </si>
   <si>
@@ -277,6 +643,15 @@
     <t>08/03/2002</t>
   </si>
   <si>
+    <t>46.01.905.065</t>
+  </si>
+  <si>
+    <t>PHAN THỊ HOÀI THƯƠNG</t>
+  </si>
+  <si>
+    <t>15/05/2002</t>
+  </si>
+  <si>
     <t>46.01.905.066</t>
   </si>
   <si>
@@ -322,205 +697,130 @@
     <t>05/05/1999</t>
   </si>
   <si>
-    <t>46.01.905.033</t>
-  </si>
-  <si>
-    <t>Đặng Thái Huy</t>
-  </si>
-  <si>
-    <t>07/07/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.002</t>
-  </si>
-  <si>
-    <t>Trần Văn Ẩn</t>
-  </si>
-  <si>
-    <t>23/09/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.004</t>
-  </si>
-  <si>
-    <t>Nguyễn Tuấn Anh</t>
-  </si>
-  <si>
-    <t>05/08/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.009</t>
-  </si>
-  <si>
-    <t>Vũ Văn Đàm</t>
-  </si>
-  <si>
-    <t>29/11/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.010</t>
-  </si>
-  <si>
-    <t>Trần Thanh Đảm</t>
-  </si>
-  <si>
-    <t>04/12/2002</t>
-  </si>
-  <si>
-    <t>Khá</t>
-  </si>
-  <si>
-    <t>46.01.905.012</t>
-  </si>
-  <si>
-    <t>Trần Hiếu Đỉnh</t>
-  </si>
-  <si>
-    <t>13/05/2001</t>
-  </si>
-  <si>
-    <t>46.01.905.014</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Đức</t>
-  </si>
-  <si>
-    <t>18/07/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.015</t>
-  </si>
-  <si>
-    <t>Nguyễn Huy Đức</t>
-  </si>
-  <si>
-    <t>05/07/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.016</t>
-  </si>
-  <si>
-    <t>Lê Minh Đức</t>
-  </si>
-  <si>
-    <t>17/06/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.017</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Ngọc Dung</t>
-  </si>
-  <si>
-    <t>03/09/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.018</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Dương</t>
-  </si>
-  <si>
-    <t>07/01/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.019</t>
-  </si>
-  <si>
-    <t>Trần Nguyễn Gia Dương</t>
-  </si>
-  <si>
-    <t>15/10/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.021</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Trúc Giang</t>
-  </si>
-  <si>
-    <t>20/02/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.034</t>
-  </si>
-  <si>
-    <t>TRẦN QUỐC KHÁNH</t>
-  </si>
-  <si>
-    <t>31/03/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.032</t>
-  </si>
-  <si>
-    <t>Trương Hồng Nhựt Huy</t>
-  </si>
-  <si>
-    <t>12/01/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.030</t>
-  </si>
-  <si>
-    <t>Trần Nguyễn Ngọc Hưng</t>
-  </si>
-  <si>
-    <t>24/10/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.029</t>
-  </si>
-  <si>
-    <t>Phan Thị Ánh Hồng</t>
-  </si>
-  <si>
-    <t>13/08/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.028</t>
-  </si>
-  <si>
-    <t>Thái Nguyễn Thi Hoàng</t>
-  </si>
-  <si>
-    <t>04/01/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.026</t>
-  </si>
-  <si>
-    <t>Điểu Minh Hiếu</t>
-  </si>
-  <si>
-    <t>30/06/2001</t>
-  </si>
-  <si>
-    <t>46.01.905.024</t>
-  </si>
-  <si>
-    <t>Từ Chí Hiển</t>
-  </si>
-  <si>
-    <t>21/11/2002</t>
-  </si>
-  <si>
-    <t>46.01.905.020</t>
-  </si>
-  <si>
-    <t>Nguyễn Trọng Duy</t>
-  </si>
-  <si>
-    <t>17/03/2001</t>
-  </si>
-  <si>
-    <t>46.01.905.022</t>
-  </si>
-  <si>
-    <t>Sơn Thị Khánh Hà</t>
-  </si>
-  <si>
-    <t>19/04/2002</t>
+    <t>47.01.905.003</t>
+  </si>
+  <si>
+    <t>LÊ TRẦN QUẢNG CHÂU</t>
+  </si>
+  <si>
+    <t>08/07/2003</t>
+  </si>
+  <si>
+    <t>47.01.GDQP.A</t>
+  </si>
+  <si>
+    <t>47.01.905.006</t>
+  </si>
+  <si>
+    <t>VÕ LÊ THANH HUỲNH</t>
+  </si>
+  <si>
+    <t>19/02/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.016</t>
+  </si>
+  <si>
+    <t>NGUYỄN ĐẶNG HOÀNG TRỌNG</t>
+  </si>
+  <si>
+    <t>01/07/2003</t>
+  </si>
+  <si>
+    <t>Kém</t>
+  </si>
+  <si>
+    <t>47.01.905.022</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN BẢO</t>
+  </si>
+  <si>
+    <t>24/08/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.024</t>
+  </si>
+  <si>
+    <t>HUỲNH TUẤN CƯỜNG</t>
+  </si>
+  <si>
+    <t>24/07/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.026</t>
+  </si>
+  <si>
+    <t>NGUYỄN HOÀNG ĐANG</t>
+  </si>
+  <si>
+    <t>10/01/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.029</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ ĐĂNG DUNG</t>
+  </si>
+  <si>
+    <t>12/04/2002</t>
+  </si>
+  <si>
+    <t>Xuất sắc</t>
+  </si>
+  <si>
+    <t>47.01.905.031</t>
+  </si>
+  <si>
+    <t>ĐẶNG QUANG DUY</t>
+  </si>
+  <si>
+    <t>24/12/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.035</t>
+  </si>
+  <si>
+    <t>NGUYỄN SANG GIÀU</t>
+  </si>
+  <si>
+    <t>11/08/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.038</t>
+  </si>
+  <si>
+    <t>TRẦN THỊ KIM HÂN</t>
+  </si>
+  <si>
+    <t>25/08/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.040</t>
+  </si>
+  <si>
+    <t>HỒ NGỌC NHƯ HOA</t>
+  </si>
+  <si>
+    <t>02/02/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.043</t>
+  </si>
+  <si>
+    <t>NGUYỄN ĐỨC HUY</t>
+  </si>
+  <si>
+    <t>07/07/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.045</t>
+  </si>
+  <si>
+    <t>TRẦN QUANG HUY</t>
+  </si>
+  <si>
+    <t>02/07/2003</t>
   </si>
   <si>
     <t>47.01.905.047</t>
@@ -532,9 +832,6 @@
     <t>05/02/2002</t>
   </si>
   <si>
-    <t>47.01.GDQP.A</t>
-  </si>
-  <si>
     <t>47.01.905.050</t>
   </si>
   <si>
@@ -580,13 +877,13 @@
     <t>01/05/2003</t>
   </si>
   <si>
-    <t>47.01.905.043</t>
-  </si>
-  <si>
-    <t>NGUYỄN ĐỨC HUY</t>
-  </si>
-  <si>
-    <t>07/07/2003</t>
+    <t>47.01.905.060</t>
+  </si>
+  <si>
+    <t>TRƯƠNG THIỆN NHÂN</t>
+  </si>
+  <si>
+    <t>12/05/2003</t>
   </si>
   <si>
     <t>47.01.905.067</t>
@@ -658,9 +955,6 @@
     <t>NGÔ VĂN TRUNG</t>
   </si>
   <si>
-    <t>10/01/2003</t>
-  </si>
-  <si>
     <t>47.01.905.088</t>
   </si>
   <si>
@@ -688,100 +982,259 @@
     <t>16/01/2003</t>
   </si>
   <si>
-    <t>47.01.905.060</t>
-  </si>
-  <si>
-    <t>TRƯƠNG THIỆN NHÂN</t>
-  </si>
-  <si>
-    <t>12/05/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.006</t>
-  </si>
-  <si>
-    <t>VÕ LÊ THANH HUỲNH</t>
-  </si>
-  <si>
-    <t>19/02/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.024</t>
-  </si>
-  <si>
-    <t>HUỲNH TUẤN CƯỜNG</t>
-  </si>
-  <si>
-    <t>24/07/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.022</t>
-  </si>
-  <si>
-    <t>NGUYỄN VĂN BẢO</t>
-  </si>
-  <si>
-    <t>24/08/2003</t>
-  </si>
-  <si>
-    <t>Kém</t>
-  </si>
-  <si>
-    <t>47.01.905.016</t>
-  </si>
-  <si>
-    <t>NGUYỄN ĐẶNG HOÀNG TRỌNG</t>
-  </si>
-  <si>
-    <t>01/07/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.029</t>
-  </si>
-  <si>
-    <t>NGUYỄN THỊ ĐĂNG DUNG</t>
-  </si>
-  <si>
-    <t>12/04/2002</t>
-  </si>
-  <si>
-    <t>Xuất sắc</t>
-  </si>
-  <si>
-    <t>47.01.905.035</t>
-  </si>
-  <si>
-    <t>NGUYỄN SANG GIÀU</t>
-  </si>
-  <si>
-    <t>11/08/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.038</t>
-  </si>
-  <si>
-    <t>TRẦN THỊ KIM HÂN</t>
-  </si>
-  <si>
-    <t>25/08/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.003</t>
-  </si>
-  <si>
-    <t>LÊ TRẦN QUẢNG CHÂU</t>
-  </si>
-  <si>
-    <t>08/07/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.040</t>
-  </si>
-  <si>
-    <t>HỒ NGỌC NHƯ HOA</t>
-  </si>
-  <si>
-    <t>02/02/2003</t>
+    <t>47.01.905.004</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ NGỌC ĐIỆP</t>
+  </si>
+  <si>
+    <t>02/03/2003</t>
+  </si>
+  <si>
+    <t>47.01.GDQP.B</t>
+  </si>
+  <si>
+    <t>47.01.905.012</t>
+  </si>
+  <si>
+    <t>NGUYỄN NGỌC NHƯ</t>
+  </si>
+  <si>
+    <t>16/09/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.020</t>
+  </si>
+  <si>
+    <t>THỊ NGỌC ÁI</t>
+  </si>
+  <si>
+    <t>24/04/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.023</t>
+  </si>
+  <si>
+    <t>LÊ THỊ CÚC</t>
+  </si>
+  <si>
+    <t>19/11/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.025</t>
+  </si>
+  <si>
+    <t>LÊ HUY CƯỜNG</t>
+  </si>
+  <si>
+    <t>27/01/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.028</t>
+  </si>
+  <si>
+    <t>TẠ CÔNG DỰ</t>
+  </si>
+  <si>
+    <t>22/07/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.030</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ THÙY DƯƠNG</t>
+  </si>
+  <si>
+    <t>01/01/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.033</t>
+  </si>
+  <si>
+    <t>KPUIH H' ÉP</t>
+  </si>
+  <si>
+    <t>18/06/2002</t>
+  </si>
+  <si>
+    <t>47.01.905.037</t>
+  </si>
+  <si>
+    <t>NGUYỄN CHÍ HẢI</t>
+  </si>
+  <si>
+    <t>17/10/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.039</t>
+  </si>
+  <si>
+    <t>PHẠM CÔNG HẬU</t>
+  </si>
+  <si>
+    <t>09/03/1998</t>
+  </si>
+  <si>
+    <t>47.01.905.042</t>
+  </si>
+  <si>
+    <t>NGUYỄN ĐĂNG HUÂN</t>
+  </si>
+  <si>
+    <t>47.01.905.044</t>
+  </si>
+  <si>
+    <t>NGUYỄN HOÀNG HUY</t>
+  </si>
+  <si>
+    <t>23/11/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.046</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ NHƯ HUỲNH</t>
+  </si>
+  <si>
+    <t>20/07/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.052</t>
+  </si>
+  <si>
+    <t>NGUYỄN VÕ PHƯƠNG LY</t>
+  </si>
+  <si>
+    <t>06/08/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.055</t>
+  </si>
+  <si>
+    <t>NGUYỄN THỊ THANH NGHĨA</t>
+  </si>
+  <si>
+    <t>22/01/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.058</t>
+  </si>
+  <si>
+    <t>NGUYỄN THÀNH NGUYÊN</t>
+  </si>
+  <si>
+    <t>09/04/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.059</t>
+  </si>
+  <si>
+    <t>TRẦN THIỆN NHÂN</t>
+  </si>
+  <si>
+    <t>25/07/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.065</t>
+  </si>
+  <si>
+    <t>DANH THỊ NGỌC NIỀM</t>
+  </si>
+  <si>
+    <t>15/11/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.066</t>
+  </si>
+  <si>
+    <t>LÊ THỊ KIỀU OANH</t>
+  </si>
+  <si>
+    <t>05/05/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.069</t>
+  </si>
+  <si>
+    <t>LÊ HOÀNG PHƯƠNG</t>
+  </si>
+  <si>
+    <t>29/10/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.072</t>
+  </si>
+  <si>
+    <t>LÊ ANH QUỲNH</t>
+  </si>
+  <si>
+    <t>47.01.905.074</t>
+  </si>
+  <si>
+    <t>THẠCH LONG LI TA</t>
+  </si>
+  <si>
+    <t>02/04/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.076</t>
+  </si>
+  <si>
+    <t>KIM THỊ TÂM</t>
+  </si>
+  <si>
+    <t>21/08/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.079</t>
+  </si>
+  <si>
+    <t>PHAN LÊ TẤN</t>
+  </si>
+  <si>
+    <t>11/06/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.083</t>
+  </si>
+  <si>
+    <t>NGUYỄN ĐOÀN BẢO TRÂN</t>
+  </si>
+  <si>
+    <t>07/03/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.085</t>
+  </si>
+  <si>
+    <t>NGUYỄN LÊ TRIỆU</t>
+  </si>
+  <si>
+    <t>20/03/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.087</t>
+  </si>
+  <si>
+    <t>NGUYỄN KHÁNH TRUNG</t>
+  </si>
+  <si>
+    <t>08/12/2003</t>
+  </si>
+  <si>
+    <t>47.01.905.090</t>
+  </si>
+  <si>
+    <t>TRẦN QUỐC TUẤN</t>
+  </si>
+  <si>
+    <t>47.01.905.091</t>
+  </si>
+  <si>
+    <t>RMAH H' TƯƠNG</t>
+  </si>
+  <si>
+    <t>29/12/2002</t>
   </si>
   <si>
     <t>47.01.905.093</t>
@@ -793,96 +1246,6 @@
     <t>01/06/2003</t>
   </si>
   <si>
-    <t>47.01.GDQP.B</t>
-  </si>
-  <si>
-    <t>47.01.905.004</t>
-  </si>
-  <si>
-    <t>NGUYỄN THỊ NGỌC ĐIỆP</t>
-  </si>
-  <si>
-    <t>02/03/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.091</t>
-  </si>
-  <si>
-    <t>RMAH H' TƯƠNG</t>
-  </si>
-  <si>
-    <t>29/12/2002</t>
-  </si>
-  <si>
-    <t>47.01.905.090</t>
-  </si>
-  <si>
-    <t>TRẦN QUỐC TUẤN</t>
-  </si>
-  <si>
-    <t>47.01.905.044</t>
-  </si>
-  <si>
-    <t>NGUYỄN HOÀNG HUY</t>
-  </si>
-  <si>
-    <t>23/11/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.087</t>
-  </si>
-  <si>
-    <t>NGUYỄN KHÁNH TRUNG</t>
-  </si>
-  <si>
-    <t>08/12/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.012</t>
-  </si>
-  <si>
-    <t>NGUYỄN NGỌC NHƯ</t>
-  </si>
-  <si>
-    <t>16/09/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.085</t>
-  </si>
-  <si>
-    <t>NGUYỄN LÊ TRIỆU</t>
-  </si>
-  <si>
-    <t>20/03/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.083</t>
-  </si>
-  <si>
-    <t>NGUYỄN ĐOÀN BẢO TRÂN</t>
-  </si>
-  <si>
-    <t>07/03/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.020</t>
-  </si>
-  <si>
-    <t>THỊ NGỌC ÁI</t>
-  </si>
-  <si>
-    <t>24/04/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.079</t>
-  </si>
-  <si>
-    <t>PHAN LÊ TẤN</t>
-  </si>
-  <si>
-    <t>11/06/2003</t>
-  </si>
-  <si>
     <t>47.01.905.095</t>
   </si>
   <si>
@@ -892,154 +1255,97 @@
     <t>22/10/2003</t>
   </si>
   <si>
-    <t>47.01.905.042</t>
-  </si>
-  <si>
-    <t>NGUYỄN ĐĂNG HUÂN</t>
-  </si>
-  <si>
-    <t>19/11/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.074</t>
-  </si>
-  <si>
-    <t>THẠCH LONG LI TA</t>
-  </si>
-  <si>
-    <t>02/04/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.076</t>
-  </si>
-  <si>
-    <t>KIM THỊ TÂM</t>
-  </si>
-  <si>
-    <t>21/08/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.046</t>
-  </si>
-  <si>
-    <t>NGUYỄN THỊ NHƯ HUỲNH</t>
-  </si>
-  <si>
-    <t>20/07/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.039</t>
-  </si>
-  <si>
-    <t>PHẠM CÔNG HẬU</t>
-  </si>
-  <si>
-    <t>09/03/1998</t>
-  </si>
-  <si>
-    <t>47.01.905.052</t>
-  </si>
-  <si>
-    <t>NGUYỄN VÕ PHƯƠNG LY</t>
-  </si>
-  <si>
-    <t>06/08/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.037</t>
-  </si>
-  <si>
-    <t>NGUYỄN CHÍ HẢI</t>
-  </si>
-  <si>
-    <t>17/10/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.055</t>
-  </si>
-  <si>
-    <t>NGUYỄN THỊ THANH NGHĨA</t>
-  </si>
-  <si>
-    <t>22/01/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.033</t>
-  </si>
-  <si>
-    <t>KPUIH H' ÉP</t>
-  </si>
-  <si>
-    <t>18/06/2002</t>
-  </si>
-  <si>
-    <t>47.01.905.058</t>
-  </si>
-  <si>
-    <t>NGUYỄN THÀNH NGUYÊN</t>
-  </si>
-  <si>
-    <t>09/04/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.059</t>
-  </si>
-  <si>
-    <t>TRẦN THIỆN NHÂN</t>
-  </si>
-  <si>
-    <t>25/07/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.030</t>
-  </si>
-  <si>
-    <t>NGUYỄN THỊ THÙY DƯƠNG</t>
-  </si>
-  <si>
-    <t>01/01/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.065</t>
-  </si>
-  <si>
-    <t>DANH THỊ NGỌC NIỀM</t>
-  </si>
-  <si>
-    <t>15/11/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.069</t>
-  </si>
-  <si>
-    <t>LÊ HOÀNG PHƯƠNG</t>
-  </si>
-  <si>
-    <t>29/10/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.028</t>
-  </si>
-  <si>
-    <t>TẠ CÔNG DỰ</t>
-  </si>
-  <si>
-    <t>22/07/2003</t>
-  </si>
-  <si>
-    <t>47.01.905.072</t>
-  </si>
-  <si>
-    <t>LÊ ANH QUỲNH</t>
-  </si>
-  <si>
-    <t>47.01.905.025</t>
-  </si>
-  <si>
-    <t>LÊ HUY CƯỜNG</t>
-  </si>
-  <si>
-    <t>27/01/2003</t>
+    <t>48.01.905.001</t>
+  </si>
+  <si>
+    <t>Ngô Đặng Gia An</t>
+  </si>
+  <si>
+    <t>26/10/2004</t>
+  </si>
+  <si>
+    <t>48.01.GDQP.A</t>
+  </si>
+  <si>
+    <t>48.01.905.005</t>
+  </si>
+  <si>
+    <t>Trần Gia Bảo</t>
+  </si>
+  <si>
+    <t>04/11/2004</t>
+  </si>
+  <si>
+    <t>Yếu</t>
+  </si>
+  <si>
+    <t>48.01.905.006</t>
+  </si>
+  <si>
+    <t>Đoàn Thị Kim Chi</t>
+  </si>
+  <si>
+    <t>22/11/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.008</t>
+  </si>
+  <si>
+    <t>Nguyễn Phát Đạt</t>
+  </si>
+  <si>
+    <t>22/03/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.011</t>
+  </si>
+  <si>
+    <t>Danh Hoàng Đức</t>
+  </si>
+  <si>
+    <t>08/01/1999</t>
+  </si>
+  <si>
+    <t>48.01.905.012</t>
+  </si>
+  <si>
+    <t>Văn Hoàng Dương</t>
+  </si>
+  <si>
+    <t>31/05/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.015</t>
+  </si>
+  <si>
+    <t>Nguyễn Hà Giang</t>
+  </si>
+  <si>
+    <t>08/10/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.016</t>
+  </si>
+  <si>
+    <t>Nguyễn Phúc Hậu</t>
+  </si>
+  <si>
+    <t>22/07/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.018</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hợp</t>
+  </si>
+  <si>
+    <t>48.01.905.024</t>
+  </si>
+  <si>
+    <t>Võ Phương Huỳnh</t>
+  </si>
+  <si>
+    <t>19/03/2004</t>
   </si>
   <si>
     <t>48.01.905.027</t>
@@ -1051,7 +1357,13 @@
     <t>06/08/2004</t>
   </si>
   <si>
-    <t>48.01.GDQP.A</t>
+    <t>48.01.905.029</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Đăng Khoa</t>
+  </si>
+  <si>
+    <t>19/02/2002</t>
   </si>
   <si>
     <t>48.01.905.031</t>
@@ -1078,9 +1390,6 @@
     <t>Nguyễn Huỳnh Bảo Ngọc</t>
   </si>
   <si>
-    <t>26/10/2004</t>
-  </si>
-  <si>
     <t>Tốt</t>
   </si>
   <si>
@@ -1192,100 +1501,208 @@
     <t>23/03/2004</t>
   </si>
   <si>
-    <t>48.01.905.082</t>
-  </si>
-  <si>
-    <t>Đỗ Thị Hồng Yến</t>
-  </si>
-  <si>
-    <t>01/01/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.008</t>
-  </si>
-  <si>
-    <t>Nguyễn Phát Đạt</t>
-  </si>
-  <si>
-    <t>22/03/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.012</t>
-  </si>
-  <si>
-    <t>Văn Hoàng Dương</t>
-  </si>
-  <si>
-    <t>31/05/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.024</t>
-  </si>
-  <si>
-    <t>Võ Phương Huỳnh</t>
-  </si>
-  <si>
-    <t>19/03/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.011</t>
-  </si>
-  <si>
-    <t>Danh Hoàng Đức</t>
-  </si>
-  <si>
-    <t>08/01/1999</t>
-  </si>
-  <si>
-    <t>48.01.905.015</t>
-  </si>
-  <si>
-    <t>Nguyễn Hà Giang</t>
-  </si>
-  <si>
-    <t>08/10/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.016</t>
-  </si>
-  <si>
-    <t>Nguyễn Phúc Hậu</t>
-  </si>
-  <si>
-    <t>22/07/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.018</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Hợp</t>
-  </si>
-  <si>
-    <t>48.01.905.006</t>
-  </si>
-  <si>
-    <t>Đoàn Thị Kim Chi</t>
-  </si>
-  <si>
-    <t>22/11/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.005</t>
-  </si>
-  <si>
-    <t>Trần Gia Bảo</t>
-  </si>
-  <si>
-    <t>04/11/2004</t>
-  </si>
-  <si>
-    <t>Yếu</t>
-  </si>
-  <si>
-    <t>48.01.905.001</t>
-  </si>
-  <si>
-    <t>Ngô Đặng Gia An</t>
+    <t>48.01.905.002</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Anh</t>
+  </si>
+  <si>
+    <t>01/09/2004</t>
+  </si>
+  <si>
+    <t>48.01.GDQP.B</t>
+  </si>
+  <si>
+    <t>48.01.905.004</t>
+  </si>
+  <si>
+    <t>Dương Quốc Bảo</t>
+  </si>
+  <si>
+    <t>48.01.905.010</t>
+  </si>
+  <si>
+    <t>Nguyễn Kha Dĩ</t>
+  </si>
+  <si>
+    <t>04/04/2003</t>
+  </si>
+  <si>
+    <t>48.01.905.014</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Mỹ Duyên</t>
+  </si>
+  <si>
+    <t>11/01/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.017</t>
+  </si>
+  <si>
+    <t>Lê Chí Hoài</t>
+  </si>
+  <si>
+    <t>12/05/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.019</t>
+  </si>
+  <si>
+    <t>Trương Thanh Chí Huân</t>
+  </si>
+  <si>
+    <t>11/05/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.021</t>
+  </si>
+  <si>
+    <t>Trương Quốc Huy</t>
+  </si>
+  <si>
+    <t>01/06/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.023</t>
+  </si>
+  <si>
+    <t>Bùi Lê Ngọc Huyền</t>
+  </si>
+  <si>
+    <t>30/09/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.025</t>
+  </si>
+  <si>
+    <t>Nguyễn Vũ Kha</t>
+  </si>
+  <si>
+    <t>13/05/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.028</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Khánh</t>
+  </si>
+  <si>
+    <t>20/07/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.030</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Lãm</t>
+  </si>
+  <si>
+    <t>02/12/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.034</t>
+  </si>
+  <si>
+    <t>Châu Thị Ngọc Linh</t>
+  </si>
+  <si>
+    <t>11/07/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.037</t>
+  </si>
+  <si>
+    <t>Lê Thị Cẩm Lụa</t>
+  </si>
+  <si>
+    <t>02/02/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.038</t>
+  </si>
+  <si>
+    <t>Kim Quang Minh</t>
+  </si>
+  <si>
+    <t>14/08/2003</t>
+  </si>
+  <si>
+    <t>48.01.905.041</t>
+  </si>
+  <si>
+    <t>Huỳnh Kim Ngân</t>
+  </si>
+  <si>
+    <t>31/01/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.045</t>
+  </si>
+  <si>
+    <t>Nguyễn Thảo Nguyên</t>
+  </si>
+  <si>
+    <t>48.01.905.047</t>
+  </si>
+  <si>
+    <t>Phan Hoàng Tâm Nhân</t>
+  </si>
+  <si>
+    <t>29/06/2003</t>
+  </si>
+  <si>
+    <t>48.01.905.049</t>
+  </si>
+  <si>
+    <t>Phạm Hiếu Như</t>
+  </si>
+  <si>
+    <t>22/01/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.052</t>
+  </si>
+  <si>
+    <t>Ngô Thị Hồng Phấn</t>
+  </si>
+  <si>
+    <t>14/04/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.055</t>
+  </si>
+  <si>
+    <t>Bùi Minh Tài</t>
+  </si>
+  <si>
+    <t>14/12/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.057</t>
+  </si>
+  <si>
+    <t>Ngô Anh Thắng</t>
+  </si>
+  <si>
+    <t>20/08/2003</t>
+  </si>
+  <si>
+    <t>48.01.905.060</t>
+  </si>
+  <si>
+    <t>Kiều Lệ Thu</t>
+  </si>
+  <si>
+    <t>22/02/2004</t>
+  </si>
+  <si>
+    <t>48.01.905.065</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Thúy</t>
+  </si>
+  <si>
+    <t>12/03/2004</t>
   </si>
   <si>
     <t>48.01.905.067</t>
@@ -1297,18 +1714,6 @@
     <t>28/09/2000</t>
   </si>
   <si>
-    <t>48.01.GDQP.B</t>
-  </si>
-  <si>
-    <t>48.01.905.052</t>
-  </si>
-  <si>
-    <t>Ngô Thị Hồng Phấn</t>
-  </si>
-  <si>
-    <t>14/04/2004</t>
-  </si>
-  <si>
     <t>48.01.905.071</t>
   </si>
   <si>
@@ -1318,39 +1723,6 @@
     <t>07/05/2004</t>
   </si>
   <si>
-    <t>48.01.905.065</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Thanh Thúy</t>
-  </si>
-  <si>
-    <t>12/03/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.010</t>
-  </si>
-  <si>
-    <t>Nguyễn Kha Dĩ</t>
-  </si>
-  <si>
-    <t>04/04/2003</t>
-  </si>
-  <si>
-    <t>48.01.905.004</t>
-  </si>
-  <si>
-    <t>Dương Quốc Bảo</t>
-  </si>
-  <si>
-    <t>48.01.905.060</t>
-  </si>
-  <si>
-    <t>Kiều Lệ Thu</t>
-  </si>
-  <si>
-    <t>22/02/2004</t>
-  </si>
-  <si>
     <t>48.01.905.077</t>
   </si>
   <si>
@@ -1366,169 +1738,10 @@
     <t>Lâm Thảo Vy</t>
   </si>
   <si>
-    <t>48.01.905.002</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng Anh</t>
-  </si>
-  <si>
-    <t>01/09/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.057</t>
-  </si>
-  <si>
-    <t>Ngô Anh Thắng</t>
-  </si>
-  <si>
-    <t>20/08/2003</t>
-  </si>
-  <si>
-    <t>48.01.905.055</t>
-  </si>
-  <si>
-    <t>Bùi Minh Tài</t>
-  </si>
-  <si>
-    <t>14/12/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.014</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Mỹ Duyên</t>
-  </si>
-  <si>
-    <t>11/01/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.049</t>
-  </si>
-  <si>
-    <t>Phạm Hiếu Như</t>
-  </si>
-  <si>
-    <t>22/01/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.047</t>
-  </si>
-  <si>
-    <t>Phan Hoàng Tâm Nhân</t>
-  </si>
-  <si>
-    <t>29/06/2003</t>
-  </si>
-  <si>
-    <t>48.01.905.045</t>
-  </si>
-  <si>
-    <t>Nguyễn Thảo Nguyên</t>
-  </si>
-  <si>
-    <t>48.01.905.017</t>
-  </si>
-  <si>
-    <t>Lê Chí Hoài</t>
-  </si>
-  <si>
-    <t>12/05/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.041</t>
-  </si>
-  <si>
-    <t>Huỳnh Kim Ngân</t>
-  </si>
-  <si>
-    <t>31/01/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.019</t>
-  </si>
-  <si>
-    <t>Trương Thanh Chí Huân</t>
-  </si>
-  <si>
-    <t>11/05/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.038</t>
-  </si>
-  <si>
-    <t>Kim Quang Minh</t>
-  </si>
-  <si>
-    <t>14/08/2003</t>
-  </si>
-  <si>
-    <t>48.01.905.037</t>
-  </si>
-  <si>
-    <t>Lê Thị Cẩm Lụa</t>
-  </si>
-  <si>
-    <t>02/02/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.034</t>
-  </si>
-  <si>
-    <t>Châu Thị Ngọc Linh</t>
-  </si>
-  <si>
-    <t>11/07/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.021</t>
-  </si>
-  <si>
-    <t>Trương Quốc Huy</t>
-  </si>
-  <si>
-    <t>01/06/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.030</t>
-  </si>
-  <si>
-    <t>Nguyễn Hoàng Lãm</t>
-  </si>
-  <si>
-    <t>02/12/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.028</t>
-  </si>
-  <si>
-    <t>Nguyễn Minh Khánh</t>
-  </si>
-  <si>
-    <t>20/07/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.023</t>
-  </si>
-  <si>
-    <t>Bùi Lê Ngọc Huyền</t>
-  </si>
-  <si>
-    <t>30/09/2004</t>
-  </si>
-  <si>
-    <t>48.01.905.025</t>
-  </si>
-  <si>
-    <t>Nguyễn Vũ Kha</t>
-  </si>
-  <si>
-    <t>13/05/2004</t>
-  </si>
-  <si>
     <t>Tổng số sinh viên:</t>
   </si>
   <si>
-    <t>27 SV</t>
+    <t>182 SV</t>
   </si>
   <si>
     <t>Số lượng</t>
@@ -1537,16 +1750,25 @@
     <t>Tỷ lệ</t>
   </si>
   <si>
-    <t>7.41%</t>
-  </si>
-  <si>
-    <t>14.81%</t>
-  </si>
-  <si>
-    <t>3.70%</t>
-  </si>
-  <si>
-    <t>51.85%</t>
+    <t>1.65%</t>
+  </si>
+  <si>
+    <t>1.10%</t>
+  </si>
+  <si>
+    <t>4.95%</t>
+  </si>
+  <si>
+    <t>2.75%</t>
+  </si>
+  <si>
+    <t>2.20%</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>21.43%</t>
   </si>
   <si>
     <r>
@@ -2050,7 +2272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K184"/>
+  <dimension ref="A1:K208"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="145" zoomScaleNormal="145">
       <selection activeCell="H14" sqref="H14"/>
@@ -2224,34 +2446,36 @@
       <c r="J12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="4">
-        <v>52</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -2267,7 +2491,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
@@ -2276,7 +2500,9 @@
       <c r="J14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="15" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -2301,7 +2527,9 @@
       <c r="J15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -2317,16 +2545,20 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="F16" s="4">
+        <v>52</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -2342,7 +2574,7 @@
         <v>44</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -2351,23 +2583,25 @@
       <c r="J17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="18" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
@@ -2376,23 +2610,25 @@
       <c r="J18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="19" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>8</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -2401,23 +2637,25 @@
       <c r="J19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>9</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
@@ -2426,23 +2664,25 @@
       <c r="J20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="4"/>
+      <c r="K20" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -2451,23 +2691,25 @@
       <c r="J21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="4"/>
+      <c r="K21" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="22" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2476,23 +2718,25 @@
       <c r="J22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>12</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -2501,23 +2745,25 @@
       <c r="J23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K23" s="4"/>
+      <c r="K23" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>13</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
@@ -2526,23 +2772,25 @@
       <c r="J24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="4"/>
+      <c r="K24" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="25" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>14</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -2551,23 +2799,25 @@
       <c r="J25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="4"/>
+      <c r="K25" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="26" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -2576,23 +2826,25 @@
       <c r="J26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K26" s="4"/>
+      <c r="K26" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
@@ -2601,23 +2853,25 @@
       <c r="J27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="4"/>
+      <c r="K27" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="28" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>17</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -2626,23 +2880,25 @@
       <c r="J28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="4"/>
+      <c r="K28" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="29" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>18</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -2651,23 +2907,25 @@
       <c r="J29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="4"/>
+      <c r="K29" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>19</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
@@ -2676,48 +2934,54 @@
       <c r="J30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K30" s="4"/>
+      <c r="K30" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>20</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F31" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="F31" s="4">
+        <v>67</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>21</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
@@ -2726,23 +2990,25 @@
       <c r="J32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="4"/>
+      <c r="K32" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="33" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>22</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -2751,23 +3017,25 @@
       <c r="J33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K33" s="4"/>
+      <c r="K33" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="34" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2776,23 +3044,25 @@
       <c r="J34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="4"/>
+      <c r="K34" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>24</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -2801,23 +3071,25 @@
       <c r="J35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="36" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>25</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -2826,23 +3098,25 @@
       <c r="J36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="4"/>
+      <c r="K36" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="37" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>26</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2851,23 +3125,25 @@
       <c r="J37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K37" s="4"/>
+      <c r="K37" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="38" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>27</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -2876,23 +3152,25 @@
       <c r="J38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="4"/>
+      <c r="K38" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="39" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>28</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -2901,23 +3179,25 @@
       <c r="J39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K39" s="4"/>
+      <c r="K39" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="40" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>29</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -2926,50 +3206,52 @@
       <c r="J40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K40" s="4"/>
+      <c r="K40" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="41" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>30</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F41" s="4">
-        <v>67</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K41" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="42" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>31</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -2978,23 +3260,25 @@
       <c r="J42" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K42" s="4"/>
+      <c r="K42" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="43" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>32</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -3003,23 +3287,25 @@
       <c r="J43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K43" s="4"/>
+      <c r="K43" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="44" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>33</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -3028,23 +3314,25 @@
       <c r="J44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K44" s="4"/>
+      <c r="K44" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="45" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>34</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -3053,23 +3341,25 @@
       <c r="J45" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="4"/>
+      <c r="K45" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="46" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>35</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -3078,23 +3368,25 @@
       <c r="J46" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K46" s="4"/>
+      <c r="K46" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="47" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>36</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -3103,23 +3395,25 @@
       <c r="J47" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="4"/>
+      <c r="K47" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="48" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>37</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -3128,23 +3422,25 @@
       <c r="J48" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="4"/>
+      <c r="K48" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="49" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>38</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -3153,23 +3449,25 @@
       <c r="J49" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="4"/>
+      <c r="K49" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="50" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>39</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -3178,23 +3476,25 @@
       <c r="J50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K50" s="4"/>
+      <c r="K50" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="51" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>40</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -3203,23 +3503,25 @@
       <c r="J51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K51" s="4"/>
+      <c r="K51" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="52" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>41</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -3228,23 +3530,25 @@
       <c r="J52" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K52" s="4"/>
+      <c r="K52" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="53" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>42</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -3253,23 +3557,25 @@
       <c r="J53" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K53" s="4"/>
+      <c r="K53" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="54" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>43</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -3278,23 +3584,25 @@
       <c r="J54" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K54" s="4"/>
+      <c r="K54" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="55" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>44</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -3303,23 +3611,25 @@
       <c r="J55" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K55" s="4"/>
+      <c r="K55" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="56" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>45</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -3328,23 +3638,25 @@
       <c r="J56" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K56" s="4"/>
+      <c r="K56" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="57" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>46</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -3353,23 +3665,25 @@
       <c r="J57" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K57" s="4"/>
+      <c r="K57" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="58" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>47</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -3378,23 +3692,25 @@
       <c r="J58" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K58" s="4"/>
+      <c r="K58" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="59" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>48</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -3403,23 +3719,25 @@
       <c r="J59" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K59" s="4"/>
+      <c r="K59" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="60" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>49</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -3428,23 +3746,25 @@
       <c r="J60" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K60" s="4"/>
+      <c r="K60" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="61" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>50</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -3453,23 +3773,25 @@
       <c r="J61" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K61" s="4"/>
+      <c r="K61" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="62" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>51</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -3478,23 +3800,25 @@
       <c r="J62" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K62" s="4"/>
+      <c r="K62" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="63" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>52</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -3503,23 +3827,25 @@
       <c r="J63" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K63" s="4"/>
+      <c r="K63" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="64" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>53</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -3528,23 +3854,25 @@
       <c r="J64" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K64" s="4"/>
+      <c r="K64" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="65" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>54</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -3553,23 +3881,25 @@
       <c r="J65" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K65" s="4"/>
+      <c r="K65" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="66" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>55</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -3578,23 +3908,25 @@
       <c r="J66" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K66" s="4"/>
+      <c r="K66" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="67" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>56</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -3603,23 +3935,25 @@
       <c r="J67" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K67" s="4"/>
+      <c r="K67" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="68" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>57</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -3628,23 +3962,25 @@
       <c r="J68" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K68" s="4"/>
+      <c r="K68" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="69" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>58</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -3653,23 +3989,25 @@
       <c r="J69" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K69" s="4"/>
+      <c r="K69" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="70" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>59</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -3678,23 +4016,25 @@
       <c r="J70" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K70" s="4"/>
+      <c r="K70" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="71" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>60</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -3703,23 +4043,25 @@
       <c r="J71" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K71" s="4"/>
+      <c r="K71" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="72" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>61</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -3728,23 +4070,25 @@
       <c r="J72" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K72" s="4"/>
+      <c r="K72" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="73" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>62</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -3753,23 +4097,25 @@
       <c r="J73" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K73" s="4"/>
+      <c r="K73" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="74" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>63</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -3778,23 +4124,25 @@
       <c r="J74" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K74" s="4"/>
+      <c r="K74" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="75" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>64</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -3803,23 +4151,25 @@
       <c r="J75" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K75" s="4"/>
+      <c r="K75" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="76" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>65</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -3828,48 +4178,60 @@
       <c r="J76" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K76" s="4"/>
+      <c r="K76" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="77" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>66</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="F77" s="4">
+        <v>66</v>
+      </c>
+      <c r="G77" s="4">
+        <v>66</v>
+      </c>
+      <c r="H77" s="4">
+        <v>66</v>
+      </c>
+      <c r="I77" s="4">
+        <v>66</v>
+      </c>
       <c r="J77" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K77" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="K77" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="78" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>67</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="F78" s="4">
         <v>93</v>
@@ -3884,50 +4246,62 @@
         <v>85</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K78" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="79" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>68</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E79" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
+      <c r="F79" s="4">
+        <v>81</v>
+      </c>
+      <c r="G79" s="4">
+        <v>83</v>
+      </c>
+      <c r="H79" s="4">
+        <v>83</v>
+      </c>
+      <c r="I79" s="4">
+        <v>83</v>
+      </c>
       <c r="J79" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K79" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="K79" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="80" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>69</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="F80" s="4">
         <v>91</v>
@@ -3940,116 +4314,116 @@
         <v>9</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="K80" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="81" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>70</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F81" s="4">
-        <v>81</v>
-      </c>
-      <c r="G81" s="4">
-        <v>83</v>
-      </c>
-      <c r="H81" s="4">
-        <v>83</v>
-      </c>
-      <c r="I81" s="4">
-        <v>83</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
       <c r="J81" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="K81" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="82" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>71</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F82" s="4">
-        <v>100</v>
-      </c>
-      <c r="G82" s="4">
-        <v>100</v>
-      </c>
-      <c r="H82" s="4">
-        <v>100</v>
-      </c>
-      <c r="I82" s="4">
-        <v>100</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
       <c r="J82" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="K82" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="83" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>72</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="F83" s="4">
+        <v>100</v>
+      </c>
+      <c r="G83" s="4">
+        <v>100</v>
+      </c>
+      <c r="H83" s="4">
+        <v>100</v>
+      </c>
+      <c r="I83" s="4">
+        <v>100</v>
+      </c>
       <c r="J83" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K83" s="4"/>
+        <v>250</v>
+      </c>
+      <c r="K83" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="84" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>73</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -4058,56 +4432,52 @@
       <c r="J84" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K84" s="4"/>
+      <c r="K84" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="85" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>74</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="F85" s="4">
-        <v>66</v>
-      </c>
-      <c r="G85" s="4">
-        <v>66</v>
-      </c>
-      <c r="H85" s="4">
-        <v>66</v>
-      </c>
-      <c r="I85" s="4">
-        <v>66</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
       <c r="J85" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K85" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="K85" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="86" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>75</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -4116,23 +4486,25 @@
       <c r="J86" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K86" s="4"/>
+      <c r="K86" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="87" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>76</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -4141,23 +4513,25 @@
       <c r="J87" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K87" s="4"/>
+      <c r="K87" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="88" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>77</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -4166,23 +4540,25 @@
       <c r="J88" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K88" s="4"/>
+      <c r="K88" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="89" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>78</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -4191,23 +4567,25 @@
       <c r="J89" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K89" s="4"/>
+      <c r="K89" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="90" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>79</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -4216,23 +4594,25 @@
       <c r="J90" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K90" s="4"/>
+      <c r="K90" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="91" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>80</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -4241,23 +4621,25 @@
       <c r="J91" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K91" s="4"/>
+      <c r="K91" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="92" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>81</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -4266,23 +4648,25 @@
       <c r="J92" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K92" s="4"/>
+      <c r="K92" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="93" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>82</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -4291,23 +4675,25 @@
       <c r="J93" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K93" s="4"/>
+      <c r="K93" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="94" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>83</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -4316,23 +4702,25 @@
       <c r="J94" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K94" s="4"/>
+      <c r="K94" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="95" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>84</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -4341,23 +4729,25 @@
       <c r="J95" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K95" s="4"/>
+      <c r="K95" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="96" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>85</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -4366,23 +4756,25 @@
       <c r="J96" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K96" s="4"/>
+      <c r="K96" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="97" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>86</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -4391,23 +4783,25 @@
       <c r="J97" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K97" s="4"/>
+      <c r="K97" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="98" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>87</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -4416,23 +4810,25 @@
       <c r="J98" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K98" s="4"/>
+      <c r="K98" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="99" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>88</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -4441,23 +4837,25 @@
       <c r="J99" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K99" s="4"/>
+      <c r="K99" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="100" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>89</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -4466,23 +4864,25 @@
       <c r="J100" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K100" s="4"/>
+      <c r="K100" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="101" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>90</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -4491,23 +4891,25 @@
       <c r="J101" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K101" s="4"/>
+      <c r="K101" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="102" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>91</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -4516,23 +4918,25 @@
       <c r="J102" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K102" s="4"/>
+      <c r="K102" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="103" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>92</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -4541,23 +4945,25 @@
       <c r="J103" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K103" s="4"/>
+      <c r="K103" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="104" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>93</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -4566,23 +4972,25 @@
       <c r="J104" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K104" s="4"/>
+      <c r="K104" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="105" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>94</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -4591,23 +4999,25 @@
       <c r="J105" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K105" s="4"/>
+      <c r="K105" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="106" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>95</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -4616,23 +5026,25 @@
       <c r="J106" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K106" s="4"/>
+      <c r="K106" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="107" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
         <v>96</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -4641,23 +5053,25 @@
       <c r="J107" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K107" s="4"/>
+      <c r="K107" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="108" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>97</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -4666,23 +5080,25 @@
       <c r="J108" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K108" s="4"/>
+      <c r="K108" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="109" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>98</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -4691,23 +5107,25 @@
       <c r="J109" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K109" s="4"/>
+      <c r="K109" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="110" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>99</v>
       </c>
       <c r="B110" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E110" s="4" t="s">
         <v>325</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -4716,23 +5134,25 @@
       <c r="J110" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K110" s="4"/>
+      <c r="K110" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="111" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>100</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -4741,23 +5161,25 @@
       <c r="J111" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K111" s="4"/>
+      <c r="K111" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="112" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>101</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -4766,23 +5188,25 @@
       <c r="J112" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K112" s="4"/>
+      <c r="K112" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="113" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>102</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -4791,23 +5215,25 @@
       <c r="J113" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K113" s="4"/>
+      <c r="K113" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="114" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>103</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>202</v>
+        <v>343</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -4816,23 +5242,25 @@
       <c r="J114" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K114" s="4"/>
+      <c r="K114" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="115" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>104</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
@@ -4841,155 +5269,133 @@
       <c r="J115" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K115" s="4"/>
+      <c r="K115" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="116" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>105</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F116" s="4">
-        <v>63</v>
-      </c>
-      <c r="G116" s="4">
-        <v>63</v>
-      </c>
-      <c r="H116" s="4">
-        <v>63</v>
-      </c>
-      <c r="I116" s="4">
-        <v>63</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
       <c r="J116" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K116" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="117" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>106</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F117" s="4">
-        <v>58</v>
-      </c>
-      <c r="G117" s="4">
-        <v>58</v>
-      </c>
-      <c r="H117" s="4">
-        <v>58</v>
-      </c>
-      <c r="I117" s="4">
-        <v>58</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
       <c r="J117" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K117" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="118" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>107</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F118" s="4">
-        <v>68</v>
-      </c>
-      <c r="G118" s="4">
-        <v>68</v>
-      </c>
-      <c r="H118" s="4">
-        <v>68</v>
-      </c>
-      <c r="I118" s="4">
-        <v>68</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
       <c r="J118" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K118" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="119" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>108</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F119" s="4">
-        <v>80</v>
-      </c>
-      <c r="G119" s="4">
-        <v>80</v>
-      </c>
-      <c r="H119" s="4">
-        <v>80</v>
-      </c>
-      <c r="I119" s="4">
-        <v>80</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
       <c r="J119" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="K119" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="120" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>109</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -4998,23 +5404,25 @@
       <c r="J120" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K120" s="4"/>
+      <c r="K120" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="121" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>110</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -5023,23 +5431,25 @@
       <c r="J121" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K121" s="4"/>
+      <c r="K121" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="122" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>111</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -5048,23 +5458,25 @@
       <c r="J122" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K122" s="4"/>
+      <c r="K122" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="123" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="4">
         <v>112</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -5073,56 +5485,52 @@
       <c r="J123" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K123" s="4"/>
+      <c r="K123" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="124" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>113</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F124" s="4">
-        <v>87</v>
-      </c>
-      <c r="G124" s="4">
-        <v>87</v>
-      </c>
-      <c r="H124" s="4">
-        <v>87</v>
-      </c>
-      <c r="I124" s="4">
-        <v>87</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
       <c r="J124" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="K124" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="K124" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="125" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>114</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -5131,23 +5539,25 @@
       <c r="J125" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K125" s="4"/>
+      <c r="K125" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="126" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>115</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
@@ -5156,23 +5566,25 @@
       <c r="J126" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K126" s="4"/>
+      <c r="K126" s="4" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="127" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>116</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
@@ -5181,23 +5593,25 @@
       <c r="J127" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K127" s="4"/>
+      <c r="K127" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="128" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>117</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>382</v>
+        <v>301</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
@@ -5206,23 +5620,25 @@
       <c r="J128" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K128" s="4"/>
+      <c r="K128" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="129" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>118</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
@@ -5231,52 +5647,52 @@
       <c r="J129" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K129" s="4"/>
+      <c r="K129" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="130" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
         <v>119</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
-      <c r="H130" s="4">
-        <v>6</v>
-      </c>
-      <c r="I130" s="4">
-        <v>6</v>
-      </c>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
       <c r="J130" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="K130" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="131" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>120</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
@@ -5285,23 +5701,25 @@
       <c r="J131" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K131" s="4"/>
+      <c r="K131" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="132" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>121</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -5310,56 +5728,52 @@
       <c r="J132" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K132" s="4"/>
+      <c r="K132" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="133" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>122</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F133" s="4">
-        <v>97</v>
-      </c>
-      <c r="G133" s="4">
-        <v>78</v>
-      </c>
-      <c r="H133" s="4">
-        <v>78</v>
-      </c>
-      <c r="I133" s="4">
-        <v>78</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
       <c r="J133" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K133" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="134" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>123</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
@@ -5368,40 +5782,36 @@
       <c r="J134" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K134" s="4"/>
+      <c r="K134" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="135" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>124</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>403</v>
+        <v>324</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F135" s="4">
-        <v>68</v>
-      </c>
-      <c r="G135" s="4">
-        <v>96</v>
-      </c>
-      <c r="H135" s="4">
-        <v>96</v>
-      </c>
-      <c r="I135" s="4">
-        <v>96</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
       <c r="J135" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="K135" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="136" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
@@ -5417,24 +5827,18 @@
         <v>406</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F136" s="4">
-        <v>94</v>
-      </c>
-      <c r="G136" s="4">
-        <v>81</v>
-      </c>
-      <c r="H136" s="4">
-        <v>92</v>
-      </c>
-      <c r="I136" s="4">
-        <v>92</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
       <c r="J136" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="K136" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="137" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
@@ -5450,18 +5854,18 @@
         <v>409</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F137" s="4">
-        <v>76</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F137" s="4"/>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K137" s="4"/>
+      <c r="K137" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="138" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
@@ -5477,7 +5881,7 @@
         <v>412</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
@@ -5486,7 +5890,9 @@
       <c r="J138" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K138" s="4"/>
+      <c r="K138" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="139" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
@@ -5499,167 +5905,185 @@
         <v>414</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>279</v>
+        <v>415</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>345</v>
+        <v>416</v>
       </c>
       <c r="F139" s="4">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="G139" s="4">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="H139" s="4">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I139" s="4">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="K139" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="140" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>129</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C140" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E140" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>345</v>
-      </c>
       <c r="F140" s="4">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="G140" s="4">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="H140" s="4">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="I140" s="4">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K140" s="4"/>
+        <v>420</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="141" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>130</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>345</v>
+        <v>416</v>
       </c>
       <c r="F141" s="4">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="G141" s="4">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="H141" s="4">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="I141" s="4">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="K141" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="K141" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="142" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
         <v>131</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>354</v>
+        <v>426</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>345</v>
+        <v>416</v>
       </c>
       <c r="F142" s="4">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G142" s="4">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H142" s="4">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I142" s="4">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K142" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="K142" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="143" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
         <v>132</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
+        <v>416</v>
+      </c>
+      <c r="F143" s="4">
+        <v>94</v>
+      </c>
+      <c r="G143" s="4">
+        <v>81</v>
+      </c>
+      <c r="H143" s="4">
+        <v>92</v>
+      </c>
+      <c r="I143" s="4">
+        <v>92</v>
+      </c>
       <c r="J143" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K143" s="4"/>
+        <v>250</v>
+      </c>
+      <c r="K143" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="144" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
         <v>133</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
@@ -5668,48 +6092,54 @@
       <c r="J144" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K144" s="4"/>
+      <c r="K144" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="145" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
         <v>134</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F145" s="4"/>
+        <v>416</v>
+      </c>
+      <c r="F145" s="4">
+        <v>76</v>
+      </c>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K145" s="4"/>
+      <c r="K145" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="146" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
         <v>135</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
@@ -5718,102 +6148,130 @@
       <c r="J146" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K146" s="4"/>
+      <c r="K146" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="147" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
         <v>136</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F147" s="4">
-        <v>61</v>
-      </c>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="G147" s="4">
+        <v>18</v>
+      </c>
+      <c r="H147" s="4">
+        <v>18</v>
+      </c>
+      <c r="I147" s="4">
+        <v>18</v>
+      </c>
       <c r="J147" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K147" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="K147" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="148" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
         <v>137</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>235</v>
+        <v>443</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F148" s="4">
-        <v>69</v>
-      </c>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="G148" s="4">
+        <v>96</v>
+      </c>
+      <c r="H148" s="4">
+        <v>96</v>
+      </c>
+      <c r="I148" s="4">
+        <v>96</v>
+      </c>
       <c r="J148" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K148" s="4"/>
+        <v>250</v>
+      </c>
+      <c r="K148" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="149" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
         <v>138</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
+        <v>416</v>
+      </c>
+      <c r="F149" s="4">
+        <v>63</v>
+      </c>
+      <c r="G149" s="4">
+        <v>63</v>
+      </c>
+      <c r="H149" s="4">
+        <v>63</v>
+      </c>
+      <c r="I149" s="4">
+        <v>63</v>
+      </c>
       <c r="J149" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K149" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="K149" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="150" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
         <v>139</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
@@ -5822,23 +6280,25 @@
       <c r="J150" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K150" s="4"/>
+      <c r="K150" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="151" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
         <v>140</v>
       </c>
       <c r="B151" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C151" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="D151" s="4" t="s">
         <v>449</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="E151" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
@@ -5847,7 +6307,9 @@
       <c r="J151" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K151" s="4"/>
+      <c r="K151" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="152" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
@@ -5863,16 +6325,26 @@
         <v>452</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
+        <v>416</v>
+      </c>
+      <c r="F152" s="4">
+        <v>58</v>
+      </c>
+      <c r="G152" s="4">
+        <v>58</v>
+      </c>
+      <c r="H152" s="4">
+        <v>58</v>
+      </c>
+      <c r="I152" s="4">
+        <v>58</v>
+      </c>
       <c r="J152" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K152" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="K152" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="153" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
@@ -5888,16 +6360,26 @@
         <v>455</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
+        <v>416</v>
+      </c>
+      <c r="F153" s="4">
+        <v>68</v>
+      </c>
+      <c r="G153" s="4">
+        <v>68</v>
+      </c>
+      <c r="H153" s="4">
+        <v>68</v>
+      </c>
+      <c r="I153" s="4">
+        <v>68</v>
+      </c>
       <c r="J153" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K153" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="K153" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="154" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
@@ -5910,21 +6392,29 @@
         <v>457</v>
       </c>
       <c r="D154" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F154" s="4">
+        <v>80</v>
+      </c>
+      <c r="G154" s="4">
+        <v>80</v>
+      </c>
+      <c r="H154" s="4">
+        <v>80</v>
+      </c>
+      <c r="I154" s="4">
+        <v>80</v>
+      </c>
+      <c r="J154" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="E154" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F154" s="4">
-        <v>52</v>
-      </c>
-      <c r="G154" s="4"/>
-      <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K154" s="4"/>
+      <c r="K154" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="155" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
@@ -5940,7 +6430,7 @@
         <v>461</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
@@ -5949,7 +6439,9 @@
       <c r="J155" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K155" s="4"/>
+      <c r="K155" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="156" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
@@ -5965,7 +6457,7 @@
         <v>464</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
@@ -5974,7 +6466,9 @@
       <c r="J156" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K156" s="4"/>
+      <c r="K156" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="157" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
@@ -5990,7 +6484,7 @@
         <v>467</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
@@ -5999,7 +6493,9 @@
       <c r="J157" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K157" s="4"/>
+      <c r="K157" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="158" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
@@ -6012,10 +6508,10 @@
         <v>469</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
@@ -6024,48 +6520,60 @@
       <c r="J158" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K158" s="4"/>
+      <c r="K158" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="159" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
         <v>148</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
-      <c r="I159" s="4"/>
+        <v>416</v>
+      </c>
+      <c r="F159" s="4">
+        <v>87</v>
+      </c>
+      <c r="G159" s="4">
+        <v>87</v>
+      </c>
+      <c r="H159" s="4">
+        <v>87</v>
+      </c>
+      <c r="I159" s="4">
+        <v>87</v>
+      </c>
       <c r="J159" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K159" s="4"/>
+        <v>458</v>
+      </c>
+      <c r="K159" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="160" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
         <v>149</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
@@ -6074,23 +6582,25 @@
       <c r="J160" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K160" s="4"/>
+      <c r="K160" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="161" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
         <v>150</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
@@ -6099,23 +6609,25 @@
       <c r="J161" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K161" s="4"/>
+      <c r="K161" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="162" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
         <v>151</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
@@ -6124,23 +6636,25 @@
       <c r="J162" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K162" s="4"/>
+      <c r="K162" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="163" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
         <v>152</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
@@ -6149,108 +6663,110 @@
       <c r="J163" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K163" s="4"/>
+      <c r="K163" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="164" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
         <v>153</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F164" s="4"/>
-      <c r="G164" s="4">
-        <v>69</v>
-      </c>
-      <c r="H164" s="4">
-        <v>69</v>
-      </c>
-      <c r="I164" s="4">
-        <v>69</v>
-      </c>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
       <c r="J164" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K164" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="K164" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="165" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
         <v>154</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
-      <c r="I165" s="4"/>
+      <c r="H165" s="4">
+        <v>6</v>
+      </c>
+      <c r="I165" s="4">
+        <v>6</v>
+      </c>
       <c r="J165" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K165" s="4"/>
+        <v>237</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="166" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
         <v>155</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F166" s="4">
-        <v>62</v>
-      </c>
-      <c r="G166" s="4">
-        <v>62</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K166" s="4"/>
+      <c r="K166" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="167" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="4">
         <v>156</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
@@ -6259,215 +6775,885 @@
       <c r="J167" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K167" s="4"/>
+      <c r="K167" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="168" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="4">
         <v>157</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C168" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E168" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D168" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F168" s="4"/>
+      <c r="F168" s="4">
+        <v>69</v>
+      </c>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K168" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="K168" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="169" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
         <v>158</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="F169" s="4"/>
+        <v>498</v>
+      </c>
+      <c r="F169" s="4">
+        <v>61</v>
+      </c>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K169" s="4"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-      <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5"/>
-      <c r="K170" s="5"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C171" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="D171" s="6"/>
-      <c r="E171" t="s">
+        <v>41</v>
+      </c>
+      <c r="K169" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="170" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>159</v>
+      </c>
+      <c r="B170" s="4" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="172" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D172" s="7" t="s">
+      <c r="C170" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K170" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="171" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>160</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K171" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="172" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>161</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K172" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="173" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>162</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K173" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="174" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>163</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K174" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="175" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>164</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K175" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="176" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>165</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K176" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="177" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>166</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F177" s="4">
+        <v>62</v>
+      </c>
+      <c r="G177" s="4">
+        <v>62</v>
+      </c>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K177" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>167</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F178" s="4"/>
+      <c r="G178" s="4">
+        <v>69</v>
+      </c>
+      <c r="H178" s="4">
+        <v>69</v>
+      </c>
+      <c r="I178" s="4">
+        <v>69</v>
+      </c>
+      <c r="J178" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K178" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>168</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
+      <c r="I179" s="4"/>
+      <c r="J179" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K179" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="180" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>169</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K180" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>170</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K181" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>171</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K182" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>172</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+      <c r="J183" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K183" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="184" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>173</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+      <c r="J184" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K184" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="185" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>174</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K185" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="186" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>175</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F186" s="4">
+        <v>52</v>
+      </c>
+      <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
+      <c r="I186" s="4"/>
+      <c r="J186" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K186" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="187" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>176</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
+      <c r="I187" s="4"/>
+      <c r="J187" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K187" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="188" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>177</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
+      <c r="I188" s="4"/>
+      <c r="J188" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K188" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>178</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
+      <c r="I189" s="4"/>
+      <c r="J189" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="190" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>179</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
+      <c r="I190" s="4"/>
+      <c r="J190" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="191" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>180</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
+      <c r="I191" s="4"/>
+      <c r="J191" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K191" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="192" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>181</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
+      <c r="I192" s="4"/>
+      <c r="J192" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K192" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="193" ht="31.5" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>182</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
+      <c r="I193" s="4"/>
+      <c r="J193" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K193" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="5"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="5"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C195" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="D195" s="6"/>
+      <c r="E195" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="196" ht="15.75" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D196" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E172" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="G172" s="8"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D173" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E173" s="9">
+      <c r="E196" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F196" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G196" s="8"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D197" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E197" s="9">
+        <v>3</v>
+      </c>
+      <c r="F197" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D198" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E198" s="9">
         <v>2</v>
       </c>
-      <c r="F173" s="9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D174" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="E174" s="9">
+      <c r="F198" s="9" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D199" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E199" s="9">
+        <v>9</v>
+      </c>
+      <c r="F199" s="9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D200" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E200" s="9">
+        <v>5</v>
+      </c>
+      <c r="F200" s="9" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D201" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E201" s="9">
         <v>2</v>
       </c>
-      <c r="F174" s="9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D175" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E175" s="9">
+      <c r="F201" s="9" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D202" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E202" s="9">
         <v>4</v>
       </c>
-      <c r="F175" s="9" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D176" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E176" s="9">
-        <v>2</v>
-      </c>
-      <c r="F176" s="9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D177" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="E177" s="9">
-        <v>1</v>
-      </c>
-      <c r="F177" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D178" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E178" s="9">
-        <v>2</v>
-      </c>
-      <c r="F178" s="9" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D179" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E179" s="9">
-        <v>14</v>
-      </c>
-      <c r="F179" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D180" s="5"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="5"/>
-    </row>
-    <row r="181" ht="114" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="B181" s="10"/>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10"/>
-      <c r="H181" s="10"/>
-      <c r="I181" s="10"/>
-      <c r="J181" s="10"/>
-      <c r="K181" s="10"/>
-    </row>
-    <row r="183" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G183" s="11" t="s">
-        <v>512</v>
-      </c>
-      <c r="H183" s="11"/>
-      <c r="I183" s="11"/>
-      <c r="J183" s="11"/>
-      <c r="K183" s="11"/>
-    </row>
-    <row r="184" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="B184" s="12"/>
-      <c r="C184" s="12"/>
-      <c r="D184" s="13"/>
-      <c r="E184" s="13"/>
-      <c r="F184" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="G184" s="12"/>
-      <c r="H184" s="12"/>
-      <c r="I184" s="12"/>
-      <c r="J184" s="12"/>
-      <c r="K184" s="12"/>
+      <c r="F202" s="9" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D203" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E203" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="F203" s="9" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="5"/>
+      <c r="G204" s="5"/>
+    </row>
+    <row r="205" ht="114" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B205" s="10"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="10"/>
+      <c r="G205" s="10"/>
+      <c r="H205" s="10"/>
+      <c r="I205" s="10"/>
+      <c r="J205" s="10"/>
+      <c r="K205" s="10"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G207" s="11" t="s">
+        <v>586</v>
+      </c>
+      <c r="H207" s="11"/>
+      <c r="I207" s="11"/>
+      <c r="J207" s="11"/>
+      <c r="K207" s="11"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B208" s="12"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="13"/>
+      <c r="E208" s="13"/>
+      <c r="F208" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="G208" s="12"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="12"/>
+      <c r="J208" s="12"/>
+      <c r="K208" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -6488,11 +7674,11 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="A181:K181"/>
-    <mergeCell ref="G183:K183"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="F184:K184"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="A205:K205"/>
+    <mergeCell ref="G207:K207"/>
+    <mergeCell ref="A208:C208"/>
+    <mergeCell ref="F208:K208"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
